--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf10-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf10-Fgfr2.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N2">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q2">
-        <v>0.1743952504347778</v>
+        <v>0.02005047847</v>
       </c>
       <c r="R2">
-        <v>1.569557253913</v>
+        <v>0.18045430623</v>
       </c>
       <c r="S2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="T2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,25 +617,25 @@
         <v>1.864751</v>
       </c>
       <c r="N3">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q3">
-        <v>0.6675441845636666</v>
+        <v>0.6675441845636667</v>
       </c>
       <c r="R3">
-        <v>6.007897661073</v>
+        <v>6.007897661073001</v>
       </c>
       <c r="S3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="T3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N4">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q4">
-        <v>0.06899832271444445</v>
+        <v>0.05212587431700001</v>
       </c>
       <c r="R4">
-        <v>0.6209849044300001</v>
+        <v>0.469132868853</v>
       </c>
       <c r="S4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="T4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
     </row>
   </sheetData>
